--- a/nuno-dataset/test-oxigen-01/content/results/metrics_5_8.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_5_8.xlsx
@@ -478,528 +478,528 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_23</t>
+          <t>model_5_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7647329332432279</v>
+        <v>0.8345810411069557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7566646430420267</v>
+        <v>0.6805536442624187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2480315354003723</v>
+        <v>0.7145472526436185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5353912794703288</v>
+        <v>0.697117677226296</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2603712975978851</v>
+        <v>0.1830700486898422</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3901068568229675</v>
+        <v>0.3256727755069733</v>
       </c>
       <c r="H2" t="n">
-        <v>1.189631700515747</v>
+        <v>0.2277480214834213</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7663536071777344</v>
+        <v>0.2795905470848083</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_22</t>
+          <t>model_5_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7648653049872381</v>
+        <v>0.8364797416105813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7564162294686795</v>
+        <v>0.67269425765577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2530414186145908</v>
+        <v>0.7243608985252414</v>
       </c>
       <c r="E3" t="n">
-        <v>0.537524055422022</v>
+        <v>0.6965141862434028</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2602248191833496</v>
+        <v>0.1809687465429306</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3905050754547119</v>
+        <v>0.3336853384971619</v>
       </c>
       <c r="H3" t="n">
-        <v>1.181705951690674</v>
+        <v>0.2199182212352753</v>
       </c>
       <c r="I3" t="n">
-        <v>0.762835681438446</v>
+        <v>0.2801476120948792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_24</t>
+          <t>model_5_8_11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7648997684318564</v>
+        <v>0.8365939310025444</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7566782702451125</v>
+        <v>0.567919183016128</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2451880527088666</v>
+        <v>0.3593726225981728</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5341144665264681</v>
+        <v>0.4867986182751426</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2601867020130157</v>
+        <v>0.1808423548936844</v>
       </c>
       <c r="G4" t="n">
-        <v>0.390084981918335</v>
+        <v>0.4405026435852051</v>
       </c>
       <c r="H4" t="n">
-        <v>1.194130182266235</v>
+        <v>0.5111235380172729</v>
       </c>
       <c r="I4" t="n">
-        <v>0.768459677696228</v>
+        <v>0.4737359881401062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_21</t>
+          <t>model_5_8_15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7680010020613707</v>
+        <v>0.8366739182208754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7582368705345263</v>
+        <v>0.544758540480011</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2678336349241986</v>
+        <v>0.3882276386407142</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5451376049230083</v>
+        <v>0.4849932060764456</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2567545473575592</v>
+        <v>0.1807538419961929</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3875862956047058</v>
+        <v>0.4641147255897522</v>
       </c>
       <c r="H5" t="n">
-        <v>1.158304333686829</v>
+        <v>0.488101601600647</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7502774000167847</v>
+        <v>0.4754025638103485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_20</t>
+          <t>model_5_8_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7681199805223183</v>
+        <v>0.8372927806116983</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7582318048163502</v>
+        <v>0.5487294813620351</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2709913962459282</v>
+        <v>0.3884216966686798</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5465602327873382</v>
+        <v>0.487393605921546</v>
       </c>
       <c r="F6" t="n">
-        <v>0.256622850894928</v>
+        <v>0.1800689399242401</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3875944316387177</v>
+        <v>0.4600664377212524</v>
       </c>
       <c r="H6" t="n">
-        <v>1.153308629989624</v>
+        <v>0.4879467785358429</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7479308843612671</v>
+        <v>0.4731867611408234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_18</t>
+          <t>model_5_8_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7719244605634186</v>
+        <v>0.8374441682534211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7588497325191847</v>
+        <v>0.6241501690151484</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3022836546137829</v>
+        <v>0.6785974525041316</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5610022997971802</v>
+        <v>0.6495164797118266</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2524124085903168</v>
+        <v>0.1799014061689377</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3866037726402283</v>
+        <v>0.3831756412982941</v>
       </c>
       <c r="H7" t="n">
-        <v>1.103803515434265</v>
+        <v>0.2564305067062378</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7241092324256897</v>
+        <v>0.3235311806201935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_19</t>
+          <t>model_5_8_20</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.772156122484139</v>
+        <v>0.839035329288859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7590279455180204</v>
+        <v>0.556798546604599</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2985597125523173</v>
+        <v>0.3857773192372369</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5594130139037725</v>
+        <v>0.4910364590232434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2521560192108154</v>
+        <v>0.1781404763460159</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3863180875778198</v>
+        <v>0.4518400728702545</v>
       </c>
       <c r="H8" t="n">
-        <v>1.109694957733154</v>
+        <v>0.490056574344635</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7267307043075562</v>
+        <v>0.4698240756988525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_14</t>
+          <t>model_5_8_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7758362653938722</v>
+        <v>0.8390939604830699</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7531671728775778</v>
+        <v>0.5665626223794641</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3521614956610498</v>
+        <v>0.3827487921373778</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5805905253591408</v>
+        <v>0.4955129446438085</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2480832189321518</v>
+        <v>0.1780755668878555</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3957138955593109</v>
+        <v>0.4418856501579285</v>
       </c>
       <c r="H9" t="n">
-        <v>1.024895668029785</v>
+        <v>0.4924728870391846</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6917992234230042</v>
+        <v>0.4656918048858643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_16</t>
+          <t>model_5_8_18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7760277611904829</v>
+        <v>0.8403256891176243</v>
       </c>
       <c r="C10" t="n">
-        <v>0.755797648178276</v>
+        <v>0.5721317227308103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3388817115335638</v>
+        <v>0.3792904592700207</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5759504866974523</v>
+        <v>0.4973632832782946</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2478712797164917</v>
+        <v>0.1767124086618423</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3914967775344849</v>
+        <v>0.4362080097198486</v>
       </c>
       <c r="H10" t="n">
-        <v>1.045904636383057</v>
+        <v>0.495232105255127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.699452817440033</v>
+        <v>0.4639837741851807</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_15</t>
+          <t>model_5_8_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7760385592692354</v>
+        <v>0.8403522792829572</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7546941321708422</v>
+        <v>0.5685131884558005</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3455113185622848</v>
+        <v>0.3835153163868481</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5783747649427132</v>
+        <v>0.496965891064615</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2478593289852142</v>
+        <v>0.1766829788684845</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3932659029960632</v>
+        <v>0.4398970603942871</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0354163646698</v>
+        <v>0.4918613135814667</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6954541206359863</v>
+        <v>0.4643505811691284</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_17</t>
+          <t>model_5_8_21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7762914822106416</v>
+        <v>0.8406669093530599</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7565585813301661</v>
+        <v>0.5627482410407871</v>
       </c>
       <c r="D12" t="n">
-        <v>0.334675833873798</v>
+        <v>0.392083588888549</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5744432854639906</v>
+        <v>0.4970804715590692</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2475794106721878</v>
+        <v>0.1763347834348679</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3902768790721893</v>
+        <v>0.4457744061946869</v>
       </c>
       <c r="H12" t="n">
-        <v>1.052558422088623</v>
+        <v>0.4850251078605652</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7019389271736145</v>
+        <v>0.4642448127269745</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_0</t>
+          <t>model_5_8_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7807764127470322</v>
+        <v>0.8410987017875744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6934840448288333</v>
+        <v>0.5771288766398566</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5672646570924258</v>
+        <v>0.3821725018651072</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6469668427976798</v>
+        <v>0.5014571325581354</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2426159232854843</v>
+        <v>0.1758569180965424</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4913958311080933</v>
+        <v>0.4311134219169617</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6845974326133728</v>
+        <v>0.4929327070713043</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5823140740394592</v>
+        <v>0.4602047204971313</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_1</t>
+          <t>model_5_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7813261138547781</v>
+        <v>0.8415820903618577</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6789378661338734</v>
+        <v>0.5929936859100575</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5670294511732765</v>
+        <v>0.3704258736112052</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6393760868508569</v>
+        <v>0.5059552065843389</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2420075684785843</v>
+        <v>0.175321951508522</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5147157311439514</v>
+        <v>0.4149394035339355</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6849695444107056</v>
+        <v>0.5023046731948853</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5948348045349121</v>
+        <v>0.4560525715351105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_13</t>
+          <t>model_5_8_24</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7816654233365891</v>
+        <v>0.841825643866658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7442782025610442</v>
+        <v>0.5710469122629884</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4010557431471978</v>
+        <v>0.3902762482815469</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5980847463230582</v>
+        <v>0.5011973785410058</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2416320592164993</v>
+        <v>0.1750524044036865</v>
       </c>
       <c r="G15" t="n">
-        <v>0.409964382648468</v>
+        <v>0.437313973903656</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9475437998771667</v>
+        <v>0.4864671230316162</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6629432439804077</v>
+        <v>0.4604445397853851</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_12</t>
+          <t>model_5_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7818410857513254</v>
+        <v>0.8423416653330904</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7417840534979725</v>
+        <v>0.5773165759446863</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4084717952419112</v>
+        <v>0.3973890497522121</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6001489238254268</v>
+        <v>0.5077555751035819</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2414376437664032</v>
+        <v>0.1744813174009323</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4139629006385803</v>
+        <v>0.4309220910072327</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9358114004135132</v>
+        <v>0.4807921648025513</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6595384478569031</v>
+        <v>0.4543906450271606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_2</t>
+          <t>model_5_8_22</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7832452998931489</v>
+        <v>0.8425338397729089</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6794030229032146</v>
+        <v>0.5751651640401418</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5656115380652724</v>
+        <v>0.3923035074100057</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6389757465364482</v>
+        <v>0.5044294837126541</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2398835718631744</v>
+        <v>0.1742686331272125</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5139700174331665</v>
+        <v>0.4331154525279999</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6872127056121826</v>
+        <v>0.4848496615886688</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5954951047897339</v>
+        <v>0.4574609696865082</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_11</t>
+          <t>model_5_8_23</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7833395599614169</v>
+        <v>0.8428851803171549</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7369423634091525</v>
+        <v>0.5732326364717478</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4260915482700741</v>
+        <v>0.3976164303379321</v>
       </c>
       <c r="E18" t="n">
-        <v>0.605609772589536</v>
+        <v>0.5054602420472462</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2397792637348175</v>
+        <v>0.1738798320293427</v>
       </c>
       <c r="G18" t="n">
-        <v>0.421724945306778</v>
+        <v>0.435085654258728</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9079365730285645</v>
+        <v>0.4806107580661774</v>
       </c>
       <c r="I18" t="n">
-        <v>0.650530993938446</v>
+        <v>0.4565094113349915</v>
       </c>
     </row>
     <row r="19">
@@ -1009,28 +1009,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7833507425057902</v>
+        <v>0.8549777891864808</v>
       </c>
       <c r="C19" t="n">
-        <v>0.731592204387874</v>
+        <v>0.6981227775220886</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4388556006778394</v>
+        <v>0.3595297302504584</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6086184449836627</v>
+        <v>0.5629919625832719</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2397668659687042</v>
+        <v>0.1604968458414078</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4303021132946014</v>
+        <v>0.3077611923217773</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8877435326576233</v>
+        <v>0.5109981894493103</v>
       </c>
       <c r="I19" t="n">
-        <v>0.645568311214447</v>
+        <v>0.4034019410610199</v>
       </c>
     </row>
     <row r="20">
@@ -1040,214 +1040,214 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7838845596768413</v>
+        <v>0.8550169507111657</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7262023740038513</v>
+        <v>0.6830881258826358</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4546830417148584</v>
+        <v>0.3918540408227422</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6129886454819</v>
+        <v>0.567348661677344</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2391761094331741</v>
+        <v>0.1604535281658173</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4389429092407227</v>
+        <v>0.3230889141559601</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8627041578292847</v>
+        <v>0.48520827293396</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6383597850799561</v>
+        <v>0.3993802666664124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_3</t>
+          <t>model_5_8_8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7851205578612916</v>
+        <v>0.8583967241629769</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6815617222200214</v>
+        <v>0.7008411289334908</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5622346762865544</v>
+        <v>0.4044689027094657</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6385619398891964</v>
+        <v>0.5828596629073723</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2378082275390625</v>
+        <v>0.1567131131887436</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5105092525482178</v>
+        <v>0.3049899041652679</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6925549507141113</v>
+        <v>0.4751435220241547</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5961776971817017</v>
+        <v>0.3850620687007904</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_4</t>
+          <t>model_5_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7863636937177041</v>
+        <v>0.8588084613846849</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6839210510187617</v>
+        <v>0.674037502958743</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5564299505243746</v>
+        <v>0.709763064746465</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6371557656618937</v>
+        <v>0.6913620504360587</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2364324331283569</v>
+        <v>0.1562574207782745</v>
       </c>
       <c r="G22" t="n">
-        <v>0.506726861000061</v>
+        <v>0.3323159217834473</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7017382383346558</v>
+        <v>0.231565073132515</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5984970927238464</v>
+        <v>0.2849035859107971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_5</t>
+          <t>model_5_8_7</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7876578414763966</v>
+        <v>0.8626621752143823</v>
       </c>
       <c r="C23" t="n">
-        <v>0.695114888927473</v>
+        <v>0.7308923349348662</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5485534367625118</v>
+        <v>0.4129451844694259</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6393608187656739</v>
+        <v>0.6038776995379213</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2350002229213715</v>
+        <v>0.1519925147294998</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4887812435626984</v>
+        <v>0.2743529379367828</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7141990661621094</v>
+        <v>0.4683807492256165</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5948599576950073</v>
+        <v>0.3656603395938873</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_8</t>
+          <t>model_5_8_6</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7880780574699989</v>
+        <v>0.8631572940109951</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7067481519802066</v>
+        <v>0.7476951494601213</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5172043494888989</v>
+        <v>0.5240879255602562</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6311968854051007</v>
+        <v>0.6589081507027543</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2345351427793503</v>
+        <v>0.1514445543289185</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4701312780380249</v>
+        <v>0.2572226226329803</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7637940049171448</v>
+        <v>0.3797056674957275</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6083260178565979</v>
+        <v>0.3148617446422577</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_7</t>
+          <t>model_5_8_4</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7884186630572372</v>
+        <v>0.8698229000491762</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7017711879389846</v>
+        <v>0.7407408009960272</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5297793737653704</v>
+        <v>0.6782420448549826</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6343118581732018</v>
+        <v>0.7175421339196959</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2341581881046295</v>
+        <v>0.1440676897764206</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4781101644039154</v>
+        <v>0.2643125057220459</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7439000606536865</v>
+        <v>0.2567140460014343</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6031880378723145</v>
+        <v>0.2607367336750031</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_6</t>
+          <t>model_5_8_5</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7890088516354561</v>
+        <v>0.8704289632732377</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6979147670129375</v>
+        <v>0.7233299295169675</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5430661595602401</v>
+        <v>0.6753460987555339</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6383246692422815</v>
+        <v>0.7061841247832465</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2335050255060196</v>
+        <v>0.1433969587087631</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4842926561832428</v>
+        <v>0.2820627391338348</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7228800654411316</v>
+        <v>0.25902459025383</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5965690612792969</v>
+        <v>0.2712213397026062</v>
       </c>
     </row>
   </sheetData>
